--- a/SPRINT 1/SP Medical/modelagens/Fisico.xlsx
+++ b/SPRINT 1/SP Medical/modelagens/Fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Vinicius\senai\Sprint-1\SP Medical\modelagens\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Vinicius\senai\Sprint-1\SPRINT 1\SP Medical\modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB7C6E5-522A-4E5D-9B20-8C593BE812FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917321A5-65E5-438F-B7DF-B917903DC0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{3D5C0894-7565-47F2-B814-B32F83FC0F5A}"/>
   </bookViews>
@@ -300,9 +300,6 @@
     <t>dataConsulta</t>
   </si>
   <si>
-    <t>idSituacao</t>
-  </si>
-  <si>
     <t>Consulta</t>
   </si>
   <si>
@@ -316,13 +313,16 @@
   </si>
   <si>
     <t>Agendada</t>
+  </si>
+  <si>
+    <t>situacao</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +388,14 @@
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -486,43 +494,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -546,15 +527,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,12 +548,6 @@
     <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -591,6 +557,49 @@
     <xf numFmtId="22" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -908,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFFB431-1739-49FA-B6B9-673E39BE9C0E}">
   <dimension ref="B1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN9" sqref="AN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -944,701 +953,698 @@
     <col min="41" max="41" width="11" customWidth="1"/>
     <col min="42" max="42" width="11.42578125" customWidth="1"/>
     <col min="43" max="43" width="9.85546875" customWidth="1"/>
-    <col min="45" max="45" width="9.5703125" customWidth="1"/>
+    <col min="45" max="45" width="10" customWidth="1"/>
     <col min="46" max="46" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="22" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="G1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="Q1" s="21" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="Q1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="Y1" s="23" t="s">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="Y1" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AJ1" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AJ1" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
       <c r="AO1" s="2"/>
     </row>
     <row r="2" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="G2" s="17" t="s">
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="T2" s="14" t="s">
+      <c r="T2" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="U2" s="14" t="s">
+      <c r="U2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="V2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AB2" s="24" t="s">
+      <c r="AB2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AC2" s="24" t="s">
+      <c r="AC2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AF2" s="24" t="s">
+      <c r="AF2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="AK2" s="33" t="s">
+      <c r="AK2" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="AL2" s="33" t="s">
+      <c r="AL2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AM2" s="33" t="s">
+      <c r="AM2" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AN2" s="33" t="s">
-        <v>91</v>
+      <c r="AN2" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
     </row>
     <row r="3" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4">
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="17">
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="G3" s="8">
         <v>1</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="8">
         <v>2</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="8">
         <v>1</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="14" t="s">
+      <c r="S3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="16">
+      <c r="T3" s="7">
         <v>0.20833333333333334</v>
       </c>
-      <c r="U3" s="16">
+      <c r="U3" s="7">
         <v>0</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="12">
         <v>1</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="13">
         <v>94839859000</v>
       </c>
-      <c r="AF3" s="27" t="s">
+      <c r="AF3" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="33">
+      <c r="AJ3" s="19">
         <v>1</v>
       </c>
-      <c r="AK3" s="33">
+      <c r="AK3" s="19">
         <v>7</v>
       </c>
-      <c r="AL3" s="33">
+      <c r="AL3" s="19">
         <v>3</v>
       </c>
-      <c r="AM3" s="34" t="s">
+      <c r="AM3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="20" t="s">
         <v>93</v>
-      </c>
-      <c r="AN3" s="34" t="s">
-        <v>94</v>
       </c>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
-      <c r="AT3" s="20"/>
+      <c r="AT3" s="11"/>
     </row>
     <row r="4" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="17">
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="G4" s="8">
         <v>2</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="8">
         <v>17</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="8">
         <v>1</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="24">
+      <c r="Y4" s="12">
         <v>2</v>
       </c>
-      <c r="Z4" s="25" t="s">
+      <c r="Z4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="AA4" s="26" t="s">
+      <c r="AA4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="AB4" s="25" t="s">
+      <c r="AB4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AE4" s="25">
+      <c r="AE4" s="13">
         <v>73556944057</v>
       </c>
-      <c r="AF4" s="28" t="s">
+      <c r="AF4" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ4" s="19">
         <v>2</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AK4" s="19">
         <v>2</v>
       </c>
-      <c r="AL4" s="33">
+      <c r="AL4" s="19">
         <v>1</v>
       </c>
-      <c r="AM4" s="35">
+      <c r="AM4" s="21">
         <v>43983.416666666664</v>
       </c>
-      <c r="AN4" s="34" t="s">
-        <v>95</v>
+      <c r="AN4" s="20" t="s">
+        <v>94</v>
       </c>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
     </row>
     <row r="5" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="G5" s="17">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="G5" s="8">
         <v>3</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="8">
         <v>16</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="8">
         <v>1</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="L5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="Y5" s="24">
+      <c r="Y5" s="12">
         <v>3</v>
       </c>
-      <c r="Z5" s="25" t="s">
+      <c r="Z5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AA5" s="26" t="s">
+      <c r="AA5" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="AB5" s="29">
+      <c r="AB5" s="17">
         <v>28773</v>
       </c>
-      <c r="AC5" s="25" t="s">
+      <c r="AC5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AD5" s="25" t="s">
+      <c r="AD5" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AE5" s="25">
+      <c r="AE5" s="13">
         <v>16839338002</v>
       </c>
-      <c r="AF5" s="28" t="s">
+      <c r="AF5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="AJ5" s="33">
+      <c r="AJ5" s="19">
         <v>3</v>
       </c>
-      <c r="AK5" s="33">
+      <c r="AK5" s="19">
         <v>3</v>
       </c>
-      <c r="AL5" s="33">
+      <c r="AL5" s="19">
         <v>1</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AM5" s="21">
         <v>44014.458333333336</v>
       </c>
-      <c r="AN5" s="34" t="s">
-        <v>94</v>
+      <c r="AN5" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
-      <c r="AT5" s="30"/>
+      <c r="AT5" s="18"/>
     </row>
     <row r="6" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="Y6" s="24">
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="Y6" s="12">
         <v>4</v>
       </c>
-      <c r="Z6" s="25" t="s">
+      <c r="Z6" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="AB6" s="25" t="s">
+      <c r="AB6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AC6" s="25" t="s">
+      <c r="AC6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="25" t="s">
+      <c r="AD6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AE6" s="25">
+      <c r="AE6" s="13">
         <v>14332654765</v>
       </c>
-      <c r="AF6" s="28" t="s">
+      <c r="AF6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="AJ6" s="33">
+      <c r="AJ6" s="19">
         <v>4</v>
       </c>
-      <c r="AK6" s="33">
+      <c r="AK6" s="19">
         <v>2</v>
       </c>
-      <c r="AL6" s="33">
+      <c r="AL6" s="19">
         <v>1</v>
       </c>
-      <c r="AM6" s="35">
+      <c r="AM6" s="21">
         <v>43253.416666666664</v>
       </c>
-      <c r="AN6" s="34" t="s">
+      <c r="AN6" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="Y7" s="12">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB7" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AD7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>91305348010</v>
+      </c>
+      <c r="AF7" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ7" s="19">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="19">
+        <v>4</v>
+      </c>
+      <c r="AL7" s="19">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>43648.458333333336</v>
+      </c>
+      <c r="AN7" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AT6" s="30"/>
-    </row>
-    <row r="7" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="Y7" s="24">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA7" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="AB7" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="AD7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE7" s="25">
-        <v>91305348010</v>
-      </c>
-      <c r="AF7" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJ7" s="33">
-        <v>5</v>
-      </c>
-      <c r="AK7" s="33">
+    </row>
+    <row r="8" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="Y8" s="12">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AD8" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>79799299004</v>
+      </c>
+      <c r="AF8" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ8" s="19">
+        <v>6</v>
+      </c>
+      <c r="AK8" s="19">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM8" s="21">
+        <v>44046.625</v>
+      </c>
+      <c r="AN8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AT8" s="18"/>
+    </row>
+    <row r="9" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="Y9" s="12">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB9" s="17">
+        <v>43223</v>
+      </c>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>13771913039</v>
+      </c>
+      <c r="AF9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" s="19">
+        <v>7</v>
+      </c>
+      <c r="AK9" s="19">
         <v>4</v>
       </c>
-      <c r="AL7" s="33">
+      <c r="AL9" s="19">
         <v>2</v>
       </c>
-      <c r="AM7" s="35">
-        <v>43648.458333333336</v>
-      </c>
-      <c r="AN7" s="34" t="s">
+      <c r="AM9" s="21">
+        <v>44077.458333333336</v>
+      </c>
+      <c r="AN9" s="20" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="8" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="Y8" s="24">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="AB8" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC8" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="AD8" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE8" s="25">
-        <v>79799299004</v>
-      </c>
-      <c r="AF8" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ8" s="33">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="33">
-        <v>7</v>
-      </c>
-      <c r="AL8" s="33">
-        <v>3</v>
-      </c>
-      <c r="AM8" s="35">
-        <v>44046.625</v>
-      </c>
-      <c r="AN8" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT8" s="30"/>
-    </row>
-    <row r="9" spans="2:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="Y9" s="24">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA9" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB9" s="29">
-        <v>43223</v>
-      </c>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="AE9" s="25">
-        <v>13771913039</v>
-      </c>
-      <c r="AF9" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ9" s="33">
-        <v>7</v>
-      </c>
-      <c r="AK9" s="33">
-        <v>4</v>
-      </c>
-      <c r="AL9" s="33">
-        <v>2</v>
-      </c>
-      <c r="AM9" s="35">
-        <v>44077.458333333336</v>
-      </c>
-      <c r="AN9" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="AT9" s="30"/>
+      <c r="AT9" s="18"/>
     </row>
     <row r="10" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="AE10" s="19"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="AE10" s="10"/>
     </row>
     <row r="11" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="AE11" s="19"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="AE11" s="10"/>
     </row>
     <row r="12" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="AN12" s="36"/>
     </row>
     <row r="13" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
     </row>
     <row r="14" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
     </row>
     <row r="15" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
     </row>
     <row r="16" spans="2:46" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="I26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G1:N1"/>
-    <mergeCell ref="Q1:V1"/>
-    <mergeCell ref="Y1:AF1"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
@@ -1655,15 +1661,18 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G1:N1"/>
+    <mergeCell ref="Q1:V1"/>
+    <mergeCell ref="Y1:AF1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="mailto:ricardo.lemos@spmedicalgroup.com.br" xr:uid="{B598C70A-43F3-4A77-8D44-49B9A0FA65E9}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{B598C70A-43F3-4A77-8D44-49B9A0FA65E9}"/>
     <hyperlink ref="I4" r:id="rId2" xr:uid="{52A02506-E14A-4F6C-B02C-5D48C9329482}"/>
     <hyperlink ref="I5" r:id="rId3" xr:uid="{A4D466BA-9768-4951-9CE9-1827926C76EA}"/>
     <hyperlink ref="AA3" r:id="rId4" xr:uid="{1289A53B-C53F-44BF-B11D-C1FF0E201DF5}"/>
-    <hyperlink ref="AA4" r:id="rId5" display="mailto:alexandre@gmail.com" xr:uid="{250C586E-AB2D-42E3-951D-F7408F372770}"/>
+    <hyperlink ref="AA4" r:id="rId5" xr:uid="{250C586E-AB2D-42E3-951D-F7408F372770}"/>
     <hyperlink ref="AA5" r:id="rId6" xr:uid="{982BDD5C-F55A-4C27-93AA-2C572E0AD532}"/>
     <hyperlink ref="AA6" r:id="rId7" xr:uid="{D60D480C-AB99-4292-96DC-8D931A690944}"/>
     <hyperlink ref="AA7" r:id="rId8" xr:uid="{BF624305-DDFF-414F-9361-FC974C8E7FE7}"/>
